--- a/角色卡/FAG强敌角色卡v0.5.xlsx
+++ b/角色卡/FAG强敌角色卡v0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91F796C-2042-4942-8A79-C48855915FE4}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D51670-57B1-4E59-B618-A7188C77C563}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>阶段3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术节</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -638,17 +642,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,9 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,47 +717,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -738,6 +746,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -750,50 +764,41 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1079,52 +1084,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C241CB40-9026-4A44-8919-385CA5D72303}">
   <dimension ref="B1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="I2" s="64" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="M2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
       <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1150,14 +1155,14 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
       <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1183,16 +1188,16 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
       <c r="M5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1227,9 +1232,9 @@
         <v>4</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
       <c r="M6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1255,23 +1260,23 @@
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="M7" s="84" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="87" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="85"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="27"/>
       <c r="S7" s="14" t="s">
         <v>52</v>
@@ -1283,26 +1288,26 @@
       <c r="V7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="M8" s="88" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="89"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="25"/>
       <c r="S8" s="11" t="s">
         <v>53</v>
@@ -1314,24 +1319,24 @@
       <c r="V8" s="26"/>
     </row>
     <row r="9" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="M9" s="75" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="M9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="57"/>
       <c r="R9" s="27"/>
       <c r="S9" s="14" t="s">
         <v>36</v>
@@ -1343,81 +1348,81 @@
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="40" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="11"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="50"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="M11" s="43"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="M12" s="43"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="50"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="M13" s="73" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="M13" s="47" t="s">
         <v>29</v>
       </c>
       <c r="N13" s="27"/>
@@ -1425,95 +1430,95 @@
         <v>30</v>
       </c>
       <c r="P13" s="14"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="34"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="50"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="60"/>
-      <c r="M14" s="73"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="66"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="24"/>
       <c r="O14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="50"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
     </row>
     <row r="15" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="M15" s="74"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="17"/>
       <c r="O15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="P15" s="18"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="52"/>
     </row>
     <row r="16" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="M17" s="38" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="M17" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="40"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -1612,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" t="s">
+      <c r="H20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" t="s">
@@ -1703,15 +1708,15 @@
         <v>27</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="M22" s="84" t="s">
+      <c r="M22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87" t="s">
+      <c r="N22" s="37"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="85"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="27"/>
       <c r="S22" s="14" t="s">
         <v>52</v>
@@ -1723,29 +1728,31 @@
       <c r="V22" s="28"/>
     </row>
     <row r="23" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="M23" s="88" t="s">
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
+      <c r="M23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="89"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91" t="s">
+      <c r="N23" s="35"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="89"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="25"/>
       <c r="S23" s="11" t="s">
         <v>53</v>
@@ -1757,15 +1764,15 @@
       <c r="V23" s="26"/>
     </row>
     <row r="24" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="57"/>
       <c r="R24" s="27"/>
       <c r="S24" s="14" t="s">
         <v>36</v>
@@ -1777,87 +1784,87 @@
       <c r="V24" s="28"/>
     </row>
     <row r="25" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="M25" s="43" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="M25" s="40" t="s">
         <v>28</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="50"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="43"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
-      <c r="M26" s="43"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="81"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="M27" s="43"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="50"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="M28" s="73" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="M28" s="47" t="s">
         <v>29</v>
       </c>
       <c r="N28" s="27"/>
@@ -1865,108 +1872,108 @@
         <v>30</v>
       </c>
       <c r="P28" s="14"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="34"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="M29" s="73"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="24"/>
       <c r="O29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="11"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="50"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="43"/>
     </row>
     <row r="30" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="M30" s="74"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+      <c r="M30" s="48"/>
       <c r="N30" s="17"/>
       <c r="O30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="18"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="52"/>
     </row>
     <row r="31" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="M32" s="38" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="M32" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="40"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="55"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
       <c r="M33" s="12" t="s">
         <v>10</v>
       </c>
@@ -1989,16 +1996,16 @@
       <c r="V33" s="28"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
       <c r="M34" s="9" t="s">
         <v>11</v>
       </c>
@@ -2021,16 +2028,16 @@
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
       <c r="M35" s="10" t="s">
         <v>20</v>
       </c>
@@ -2053,16 +2060,16 @@
       <c r="V35" s="28"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
       <c r="M36" s="9" t="s">
         <v>23</v>
       </c>
@@ -2085,25 +2092,25 @@
       <c r="V36" s="26"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
-      <c r="M37" s="84" t="s">
+      <c r="B37" s="84"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+      <c r="M37" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="85"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="87" t="s">
+      <c r="N37" s="37"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="37"/>
       <c r="R37" s="27"/>
       <c r="S37" s="14" t="s">
         <v>52</v>
@@ -2115,25 +2122,25 @@
       <c r="V37" s="28"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-      <c r="M38" s="88" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="M38" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N38" s="89"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="91" t="s">
+      <c r="N38" s="35"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="Q38" s="89"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="25"/>
       <c r="S38" s="11" t="s">
         <v>53</v>
@@ -2145,25 +2152,25 @@
       <c r="V38" s="26"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="34"/>
-      <c r="M39" s="75" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="M39" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="N39" s="55"/>
+      <c r="N39" s="57"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="54" t="s">
+      <c r="P39" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Q39" s="55"/>
+      <c r="Q39" s="57"/>
       <c r="R39" s="27"/>
       <c r="S39" s="14" t="s">
         <v>36</v>
@@ -2175,64 +2182,64 @@
       <c r="V39" s="28"/>
     </row>
     <row r="40" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="M40" s="43" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="52"/>
+      <c r="M40" s="40" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="11"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="50"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="43"/>
     </row>
     <row r="41" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M41" s="43"/>
+      <c r="M41" s="40"/>
       <c r="N41" s="22"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="81"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="46"/>
     </row>
     <row r="42" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
-      <c r="M42" s="43"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="50"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="43"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
@@ -2255,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="K43" s="8"/>
-      <c r="M43" s="73" t="s">
+      <c r="M43" s="47" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="27"/>
@@ -2263,12 +2270,12 @@
         <v>30</v>
       </c>
       <c r="P43" s="14"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="34"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="50"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
@@ -2291,18 +2298,18 @@
         <v>19</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="M44" s="73"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="24"/>
       <c r="O44" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P44" s="11"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="50"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="43"/>
     </row>
     <row r="45" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
@@ -2325,18 +2332,18 @@
         <v>27</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="M45" s="74"/>
+      <c r="M45" s="48"/>
       <c r="N45" s="17"/>
       <c r="O45" s="18" t="s">
         <v>30</v>
       </c>
       <c r="P45" s="18"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="37"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="52"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
@@ -2361,15 +2368,15 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87" t="s">
+      <c r="C47" s="37"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="27"/>
       <c r="H47" s="14" t="s">
         <v>52</v>
@@ -2381,15 +2388,15 @@
       <c r="K47" s="28"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91" t="s">
+      <c r="C48" s="35"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="89"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="25"/>
       <c r="H48" s="11" t="s">
         <v>53</v>
@@ -2401,15 +2408,15 @@
       <c r="K48" s="26"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="55"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="7"/>
       <c r="H49" s="14" t="s">
         <v>36</v>
@@ -2421,45 +2428,45 @@
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="22"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="81"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="43"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="43"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="7"/>
@@ -2467,65 +2474,85 @@
         <v>30</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="34"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="73"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="16"/>
       <c r="D54" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="11"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="43"/>
     </row>
     <row r="55" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="74"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="37"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="O40:V40"/>
-    <mergeCell ref="O41:V41"/>
-    <mergeCell ref="O42:V42"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K9"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="B26:K40"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="M32:V32"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="D50:K50"/>
     <mergeCell ref="D51:K51"/>
@@ -2542,49 +2569,29 @@
     <mergeCell ref="Q15:V15"/>
     <mergeCell ref="M17:V17"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="M32:V32"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="O40:V40"/>
+    <mergeCell ref="O41:V41"/>
+    <mergeCell ref="O42:V42"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M40:M42"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F53:K53"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K9"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B26:K40"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
